--- a/Tư vấn học viên.xlsx
+++ b/Tư vấn học viên.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TOEIC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Nộp học phí theo khóa hay theo tháng?</t>
   </si>
@@ -63,9 +62,6 @@
     <t>NHỮNG CÂU HỎI THƯỜNG GẶP</t>
   </si>
   <si>
-    <t>ĐIỂM MẠNH CỦA TRUNG TÂM</t>
-  </si>
-  <si>
     <t>Giáo viên đạt TOEIC 950/990, gần điểm tuyệt đối</t>
   </si>
   <si>
@@ -75,9 +71,6 @@
     <t>Lớp học chỉ từ 6 - 12 học viên, phòng học có máy lạnh thoáng mát</t>
   </si>
   <si>
-    <t>Thi thử và học lại miễn phí nếu không đạt được mục tiêu</t>
-  </si>
-  <si>
     <t>Kiểm tra đánh giá năng lực đầu vào miễn phí cho các học viên</t>
   </si>
   <si>
@@ -154,6 +147,35 @@
   </si>
   <si>
     <t>TOIEC có 4 cấp độ: Pre-toeic (200 - 300), 300 - 500, 500 - 700, 700 - 900</t>
+  </si>
+  <si>
+    <t>Học lại miễn phí nếu không đạt được mục tiêu</t>
+  </si>
+  <si>
+    <t>THÔNG TIN</t>
+  </si>
+  <si>
+    <t>Lệ phí thi quốc tế rẻ - 800k</t>
+  </si>
+  <si>
+    <t>Lịch thi dày đặc - Sáng thứ 4 thứ 6 hàng tuần</t>
+  </si>
+  <si>
+    <t>Thời gian học ngắn - 3 tháng có thể lấy chứng chỉ quốc tế</t>
+  </si>
+  <si>
+    <t>TOEIC phù hợp với xin việc và đi làm</t>
+  </si>
+  <si>
+    <t>Thưởng 100k nếu đầu ra đạt</t>
+  </si>
+  <si>
+    <t>Cử nhân: 450
+Thạc sỹ: 550
+Trưởng nhóm/Quản lý: &gt; 700</t>
+  </si>
+  <si>
+    <t>500 điểm thì khoảng mấy chấm IELTS</t>
   </si>
 </sst>
 </file>
@@ -228,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -264,6 +286,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -274,29 +307,53 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -585,185 +642,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
-    <col min="4" max="4" width="86.7109375" customWidth="1"/>
+    <col min="1" max="1" width="66.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="86.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="D20" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D22" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Tư vấn học viên.xlsx
+++ b/Tư vấn học viên.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,12 +41,6 @@
     <t>1 tuần học bao nhiêu buổi?</t>
   </si>
   <si>
-    <t>Trung tâm có dạy giao tiếp không?</t>
-  </si>
-  <si>
-    <t>Có giáo viên nước ngoài dạy không?</t>
-  </si>
-  <si>
     <t>Khi nào mở lớp….?</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>Sẽ nộp học phí theo khóa</t>
   </si>
   <si>
-    <t>Ở TT là giáo viên người Việt dạy nhưng môi trường giao tiếp là 100% Tiếng Anh</t>
-  </si>
-  <si>
     <t>Bên TT vẫn chưa có chương trình học thử.</t>
   </si>
   <si>
@@ -128,16 +119,7 @@
     <t>Lệ phí thi chứng chỉ quốc tế là 800k bạn nhé</t>
   </si>
   <si>
-    <t>Số lượng học viên ít sẽ giúp các bạn có nhiều cơ hội để giao tiếp, nói chuyện bằng tiếng Anh trong lớp học. Các bạn có thể dễ dàng trao đổi với giáo viên ngay tại lớp học</t>
-  </si>
-  <si>
-    <t>Đánh giá được năng lực của các bạn. Từ đó trung tâm có thể xếp cho các bạn vào lớp phù hợp với cấp độ của mình</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sẽ được học hỏi những kinh nghiệm thực tế, các kỹ năng làm bài, các mẹo để đạt điểm cao trong bài thi </t>
-  </si>
-  <si>
-    <t>Giúp các bạn có thể tiếp xúc được với các dạng đề mới nhất</t>
   </si>
   <si>
     <t xml:space="preserve">Giúp các bạn cảm thấy thoải mái trong việc học tập, không bị áp lực khi học trong một lớp không đúng với trình độ của mình. Giúp khả năng tiếp thu bài của các bạn sẽ cao hơn </t>
@@ -176,6 +158,24 @@
   </si>
   <si>
     <t>500 điểm thì khoảng mấy chấm IELTS</t>
+  </si>
+  <si>
+    <t>Có thể thi lại trong thời gian ngắn nếu như không đạt mục tiêu</t>
+  </si>
+  <si>
+    <t>Mở lớp sau 10 ngày kể từ ngày ra thông báo khai giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các suất học: 2,4,6: 17h30 - 19h/19h30 - 21h.  3,5,7: 17h30 - 19h/ 19h - 21h   </t>
+  </si>
+  <si>
+    <t>Giúp các bạn có thể làm quen được với các dạng đề mới nhất</t>
+  </si>
+  <si>
+    <t>Đánh giá được năng lực của các bạn. Từ đó bạn sẽ được xếp vào lớp phù hợp với cấp độ của mình</t>
+  </si>
+  <si>
+    <t>Số lượng học viên ít sẽ giúp các bạn được hướng dẫn tận tình, có thể dễ dàng trao đổi với giáo viên ngay tại lớp học</t>
   </si>
 </sst>
 </file>
@@ -287,14 +287,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -307,7 +309,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -330,9 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -353,6 +352,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -642,9 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,196 +677,199 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>26</v>
+      <c r="D5" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="A6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="B10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="13"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14" t="s">
+    <row r="20" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="14" t="s">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>40</v>
+      <c r="D22" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Tư vấn học viên.xlsx
+++ b/Tư vấn học viên.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,9 +62,6 @@
     <t>Học phí rẻ hơn các trung tâm khác</t>
   </si>
   <si>
-    <t>Lớp học chỉ từ 6 - 12 học viên, phòng học có máy lạnh thoáng mát</t>
-  </si>
-  <si>
     <t>Kiểm tra đánh giá năng lực đầu vào miễn phí cho các học viên</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>Số lượng học viên ít sẽ giúp các bạn được hướng dẫn tận tình, có thể dễ dàng trao đổi với giáo viên ngay tại lớp học</t>
+  </si>
+  <si>
+    <t>Lớp học chỉ từ 6 - 20 học viên, phòng học có máy lạnh thoáng mát</t>
   </si>
 </sst>
 </file>
@@ -662,9 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,16 +677,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -694,13 +694,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,162 +714,162 @@
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
+      <c r="A4" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="13"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
